--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
@@ -412,18 +412,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -447,6 +435,18 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44340,246 +44340,246 @@
   <sheetData>
     <row r="1" spans="2:6" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="13.15" customHeight="1" thickTop="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B17" s="8"/>
-      <c r="C17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" ht="13.15" customHeight="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6" ht="12.75" thickTop="1"/>
   </sheetData>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
@@ -79,7 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$D$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$G$40</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -44323,7 +44323,7 @@
   </sheetPr>
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -44333,7 +44333,8 @@
     <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1"/>
     <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.7109375" style="1"/>
   </cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
@@ -44327,13 +44327,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1"/>
     <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.7109375" style="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM031_EARTH_QUAKEI_INS.xlsx
@@ -44328,13 +44328,13 @@
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.7109375" style="1"/>
   </cols>
